--- a/biology/Zoologie/Aspidytes_niobe/Aspidytes_niobe.xlsx
+++ b/biology/Zoologie/Aspidytes_niobe/Aspidytes_niobe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspidytes niobe est une espèce sud-africaine de coléoptères de la famille des Aspidytidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce panchronique[1] se présente comme un insecte noir, mesurant de 4,8 mm à 7 mm[2]. Les larves mesurent 7 mm de long[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce panchronique se présente comme un insecte noir, mesurant de 4,8 mm à 7 mm. Les larves mesurent 7 mm de long.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition, habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidytes niobe n'est présent qu'en Afrique du Sud[2], dans deux localités la province du Cap-Occidental[4]. Ce coléoptère vit dans des environnements hygropétriques[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidytes niobe n'est présent qu'en Afrique du Sud, dans deux localités la province du Cap-Occidental. Ce coléoptère vit dans des environnements hygropétriques.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aspidytes niobe a été décrite en 2002 par Ignacio Ribera (d), Rolf Georg Beutel (d), Michael Balke (d) et Alfried P. Vogler (d)[5],[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aspidytes niobe a été décrite en 2002 par Ignacio Ribera (d), Rolf Georg Beutel (d), Michael Balke (d) et Alfried P. Vogler (d).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, niobe, fait référence à Niobé, la reine de Thèbes dont le visage était encore couvert de larmes après avoir été transformée en pierre[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, niobe, fait référence à Niobé, la reine de Thèbes dont le visage était encore couvert de larmes après avoir été transformée en pierre.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) I. Ribera, R. G. Beutel, M. Balke et A. P. Vogler, « Discovery of Aspidytidae, a new family of aquatic Coleoptera », Proceedings of the Royal Society B, Royal Society, vol. 269, no 1507,‎ 22 novembre 2002, p. 2351-2356 (ISSN 0962-8452 et 1471-2954, PMID 12495503, PMCID 1691161, DOI 10.1098/RSPB.2002.2157, lire en ligne)</t>
         </is>
